--- a/docs/example_be/data/Water_w_ConstructionYear_2025.xlsx
+++ b/docs/example_be/data/Water_w_ConstructionYear_2025.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ConstructionYear_1900</t>
+  </si>
+  <si>
+    <t>ConstructionYear_1918</t>
   </si>
   <si>
     <t>ConstructionYear_1945</t>
@@ -425,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -471,201 +474,219 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>756</v>
       </c>
       <c r="C2">
-        <v>37386</v>
+        <v>2107</v>
       </c>
       <c r="D2">
-        <v>25425.41</v>
+        <v>31728</v>
       </c>
       <c r="E2">
-        <v>15773.41</v>
+        <v>24695</v>
       </c>
       <c r="F2">
-        <v>55329.43</v>
+        <v>20596</v>
       </c>
       <c r="G2">
-        <v>29159</v>
+        <v>19762</v>
       </c>
       <c r="H2">
-        <v>21661.42</v>
+        <v>41657</v>
       </c>
       <c r="I2">
-        <v>16913.4</v>
+        <v>36786</v>
       </c>
       <c r="J2">
-        <v>21958</v>
+        <v>37786</v>
       </c>
       <c r="K2">
-        <v>10661</v>
+        <v>15789</v>
       </c>
       <c r="L2">
-        <v>40157.83</v>
+        <v>17284</v>
       </c>
       <c r="M2">
-        <v>12553.41</v>
+        <v>27518</v>
+      </c>
+      <c r="N2">
+        <v>27313.31</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>4218</v>
-      </c>
-      <c r="C3">
-        <v>17949.63</v>
+        <v>3783</v>
       </c>
       <c r="D3">
-        <v>16160.84</v>
+        <v>23941.59</v>
       </c>
       <c r="E3">
-        <v>26819.44</v>
+        <v>33933.6</v>
       </c>
       <c r="F3">
-        <v>28825.66</v>
+        <v>12107.27</v>
       </c>
       <c r="G3">
-        <v>63221.64</v>
+        <v>21273.51</v>
       </c>
       <c r="H3">
-        <v>20980.83</v>
+        <v>27826.15</v>
       </c>
       <c r="I3">
-        <v>19299.65</v>
+        <v>25649.13</v>
       </c>
       <c r="J3">
-        <v>18038.66</v>
+        <v>36460.21</v>
       </c>
       <c r="K3">
-        <v>9031.41</v>
+        <v>15256.25</v>
       </c>
       <c r="L3">
-        <v>30896.21</v>
+        <v>11792.58</v>
       </c>
       <c r="M3">
-        <v>12326</v>
+        <v>25899.59</v>
+      </c>
+      <c r="N3">
+        <v>14275.55</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>5432.62</v>
       </c>
       <c r="C4">
-        <v>37505.34</v>
+        <v>38.32</v>
       </c>
       <c r="D4">
-        <v>12183.05</v>
+        <v>15585.17</v>
       </c>
       <c r="E4">
-        <v>37509.5</v>
+        <v>21938.42</v>
       </c>
       <c r="F4">
-        <v>27302.98</v>
+        <v>11685.87</v>
       </c>
       <c r="G4">
-        <v>29447.31</v>
+        <v>25276.22</v>
       </c>
       <c r="H4">
-        <v>35634.09</v>
+        <v>16113.1</v>
       </c>
       <c r="I4">
-        <v>22588.86</v>
+        <v>30999.13</v>
       </c>
       <c r="J4">
-        <v>9562.83</v>
+        <v>38580.44</v>
       </c>
       <c r="K4">
-        <v>8999.4</v>
+        <v>26178.14</v>
       </c>
       <c r="L4">
-        <v>20239.32</v>
+        <v>16685.87</v>
       </c>
       <c r="M4">
-        <v>16871.23</v>
+        <v>32066.15</v>
+      </c>
+      <c r="N4">
+        <v>15668.16</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>4174.84</v>
-      </c>
-      <c r="C5">
-        <v>17721.89</v>
+        <v>910.64</v>
       </c>
       <c r="D5">
-        <v>30444.93</v>
+        <v>17586.04</v>
       </c>
       <c r="E5">
-        <v>13797.91</v>
+        <v>23999.04</v>
       </c>
       <c r="F5">
-        <v>34634.12</v>
+        <v>10350.21</v>
       </c>
       <c r="G5">
-        <v>25163.98</v>
+        <v>20567.05</v>
       </c>
       <c r="H5">
-        <v>32119.3</v>
+        <v>33363.96</v>
       </c>
       <c r="I5">
-        <v>19641.08</v>
+        <v>31628.68</v>
       </c>
       <c r="J5">
-        <v>6860.64</v>
+        <v>19203.35</v>
       </c>
       <c r="K5">
-        <v>9047.08</v>
+        <v>14848.76</v>
       </c>
       <c r="L5">
-        <v>18418.11</v>
+        <v>12146.85</v>
       </c>
       <c r="M5">
-        <v>7895.65</v>
+        <v>18881.18</v>
+      </c>
+      <c r="N5">
+        <v>10398.89</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>23722.4</v>
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1989.63</v>
       </c>
       <c r="D6">
-        <v>3910.46</v>
+        <v>14134.4</v>
       </c>
       <c r="E6">
-        <v>19402.93</v>
+        <v>13426.42</v>
       </c>
       <c r="F6">
-        <v>30157.19</v>
+        <v>20346.68</v>
       </c>
       <c r="G6">
-        <v>25060.96</v>
+        <v>22532.3</v>
       </c>
       <c r="H6">
-        <v>28085.99</v>
+        <v>24775.92</v>
       </c>
       <c r="I6">
-        <v>22270.96</v>
+        <v>35835.83</v>
       </c>
       <c r="J6">
-        <v>19115.31</v>
+        <v>31014.19</v>
       </c>
       <c r="K6">
-        <v>8421.66</v>
+        <v>13740.42</v>
       </c>
       <c r="L6">
-        <v>20377.32</v>
+        <v>6450.16</v>
       </c>
       <c r="M6">
-        <v>9103.459999999999</v>
+        <v>24354.21</v>
+      </c>
+      <c r="N6">
+        <v>7430.19</v>
       </c>
     </row>
   </sheetData>
